--- a/converter/src/test/resources/to.xlsx
+++ b/converter/src/test/resources/to.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\kotlin\AlfaConverter\converter\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7418223E-C2E7-4EE7-A56C-AFDB26E31F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B8DE9C-A019-4A0E-8CF9-263DFBAEB28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="1980" windowWidth="15525" windowHeight="10965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="нужный формат" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Фамилия</t>
   </si>
@@ -67,36 +67,6 @@
   </si>
   <si>
     <t>Дата и время выполнения</t>
-  </si>
-  <si>
-    <t>Иванов</t>
-  </si>
-  <si>
-    <t>Иван</t>
-  </si>
-  <si>
-    <t>Иванович</t>
-  </si>
-  <si>
-    <t>Мужской</t>
-  </si>
-  <si>
-    <t>Псков, ул. Ленина 35-28</t>
-  </si>
-  <si>
-    <t>Гастрит</t>
-  </si>
-  <si>
-    <t>К 29.3</t>
-  </si>
-  <si>
-    <t>Гематологическое исследование</t>
-  </si>
-  <si>
-    <t>Клинико-диагностический центр</t>
-  </si>
-  <si>
-    <t>Псков, 8 Марта, 23</t>
   </si>
 </sst>
 </file>
@@ -133,10 +103,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,50 +446,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1">
-        <v>23183</v>
-      </c>
-      <c r="G2">
-        <v>59</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2">
-        <v>44734.388888888891</v>
-      </c>
-      <c r="L2" s="2">
-        <v>44736.578472222223</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" t="s">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
